--- a/Single-Turn.xlsx
+++ b/Single-Turn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengbin/Desktop/LLM-Paper-Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengBin\Desktop\LLM-Paper-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD29DF4E-794F-D14D-85ED-495C01598F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180E4B9-F7C7-4800-8C4C-9D2F7C30C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Plan</t>
   </si>
@@ -8400,3477 +8400,6 @@
 ## 第五天：杭州到深圳
 在5月5日，您将乘坐高铁G99，12:15出发，预计在18:45抵达深圳，车票价格为543元。结束这次愉快的旅行，带着美好的回忆回家。
 希望您在这次成都与杭州的旅程中，能够尽情享受每一个瞬间，留下难忘的回忆！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">根据您的要求，我为您制定了一个为期5天的旅行计划，涵盖了杭州和重庆两个城市。以下是详细的行程安排：
-### 行程安排
-#### 第1天：上海出发 - 杭州
-- **交通**：乘坐高铁G1674，08:45从上海出发，09:50到达杭州，票价63元。
-- **酒店推荐**：
-  - **高档酒店**：杭州范艺术酒店（国际博览中心店）
-    - 地址：盈丰街道鸿宁路1819号
-    - 联系电话：0571-57188288
-    - 价格范围：约500元/晚
-  - **经济酒店**：7天优品（杭州西湖店）
-    - 地址：西湖区文二路
-    - 联系电话：0571-88888888
-    - 价格范围：约200元/晚
-- **景点推荐**：
-  - **博地中心地下美食商业街**
-    - 地址：市心北路盈丰路地铁站C口
-    - 开放时间：全天
-    - 门票：免费
-    - 特色美食：招牌饸饹面，价格约10元。
-- **晚餐推荐**：
-  - **鲜潮牛·潮汕牛肉火锅（鹿山时代店）**
-    - 地址：金鹿路269号（鹿山时代商场6号楼105室F122、123号商铺）
-    - 联系电话：0571-88882286
-    - 平均消费：80元
-#### 第2天：杭州
-- **景点推荐**：
-  - **小古城村景区**
-    - 地址：径山镇潘金线金钟山农庄北50米
-    - 开放时间：全天
-    - 门票：免费，部分项目单独收费。
-  - **鹿山时代**
-    - 地址：江滨西大道181号
-    - 开放时间：全天
-    - 门票：免费
-- **午餐推荐**：
-  - **古茗（径山店）**
-    - 地址：径山镇锦城街6号好又哆超市门口6-1号
-    - 联系电话：18158189959
-    - 平均消费：16元
-- **晚餐推荐**：
-  - **富家黑鱼馆·酸菜鱼（鹿山时代店）**
-    - 地址：鹿山时代商场6号楼（鲜潮牛火锅店旁）
-    - 联系电话：0571-88882286
-    - 平均消费：63元
-#### 第3天：杭州 - 重庆
-- **交通**：乘坐高铁D2272，15:30从杭州出发，21:59到达重庆，票价585元。
-- **酒店推荐**：
-  - **高档酒店**：重庆融创施柏阁酒店
-    - 地址：文广大道18号
-    - 联系电话：023-86288888
-    - 价格范围：约600元/晚
-  - **经济酒店**：7天优品（重庆北碚轻轨总站西南大学店）
-    - 地址：云泉路49号-5
-    - 联系电话：023-68278777
-    - 价格范围：约200元/晚
-#### 第4天：重庆
-- **景点推荐**：
-  - **重庆第一楼**
-    - 地址：藏龙街137号
-    - 开放时间：全天
-    - 门票：5元
-  - **香海温泉**
-    - 地址：胜利路408号
-    - 联系电话：023-49511188
-    - 开放时间：全天
-    - 门票：约100元
-- **午餐推荐**：
-  - **资阳羊肉（龙兴古镇店）**
-    - 地址：龙华路60号
-    - 联系电话：13637771928
-    - 平均消费：62元
-- **晚餐推荐**：
-  - **施柏阁酒店·Bela全日餐厅**
-    - 地址：文广大道18号附2号（重庆融创施柏阁酒店1层）
-    - 联系电话：023-88287298
-    - 平均消费：164元
-#### 第5天：重庆 - 上海
-- **交通**：乘坐高铁D3056，19:30从重庆出发，07:30到达上海，票价597元。
-### 注意事项
-- 请提前预定酒店和高铁票，以确保顺利出行。
-- 根据个人喜好调整餐厅和景点的选择。
-- 旅行期间注意安全，保持通讯畅通。
-希望这个旅行计划能让您享受愉快的旅程！如有其他需求，请随时告知。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "now_city":"上海",
-    "visit_city_list":"['杭州','重庆']",
-    "start_date":"2024年5月1日",
-    "end_date":"2024年5月5日",
-    "children_count":0,
-    "adult_count":1,
-    "hotel_type":null,
-    "room_type":null,
-    "meal_requirements":"['当地特色小吃','火锅']",
-    "must_visit_attractions":null,
-    "avoid_attractions":null,
-    "budget":5000
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我计划在2024年5月1日到5月5日之间，从上海出发，前往杭州和重庆旅行。这次旅行我会独自一人，预算大约是5000元。我希望在旅途中能够品尝到当地的特色小吃和火锅。请问有什么推荐的行程安排或者住宿建议吗？
-</t>
-  </si>
-  <si>
-    <t>{
- "now_city": "上海",
- "visit_city_list": "['杭州','重庆']",
- "start_date": "2024年5月1日",
- "end_date": "2024年5月5日",
- "children_count": NaN,
- "adult_count": NaN,
- "hotel_type": None,
- "room_type": None,
- "meal_requirements": None,
- "must_visit_attractions": None,
- "avoid_attractions": None,
- "budget": 5000.0
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我计划在2024年5月1日至5月5日之间，从上海出发去杭州和重庆游玩，预算大约在5000元左右。请问你能给我一些旅行建议吗？
-</t>
-  </si>
-  <si>
-    <t>景点:博地中心地下美食商业街
-图片:http://p0.meituan.net/poipicadd/315498fce7215bf4c33f9653c8c50617179789.jpg
-地址:市心北路盈丰路地铁站C口
-所在城市:杭州
-类别:休闲街区
-是否必玩:0
-平均得分:40
-评论:['地铁口里的地下美食城，位置很好找，吃的种类很多，居然还有山西面条，点了他们的招牌饸饹面\u200c，才十几块钱，分量真的超足！一大碗面上来，面条很劲道。\\\\n\\\\n上面速度很快，这么实惠的价格，还能吃到这么一大碗好吃的面，真的很划算。', '美食一条街！超多的小吃，性价比很高！', '有雪王👑美美来了一个大甜筒🍦我还是第一次路过这里，好奇进去逛逛，没想到这边居然有这么一条地下美食街，里面吃的类型还挺丰富，覆盖这附近好几栋商用大楼人流也还不错，挺方便的，环境也干净整洁，就很棒很nice', '到盈丰路啦，二号线挺快的啦，嘻嘻嘻', '打工人的食堂，干饭天堂\\\\n吃饭很方便，店铺很多选择性强\\\\n就在地铁站旁边很方便']
-景点:重庆融创国际会议中心
-图片:http://p1.meituan.net/hoteltdc/0964d6de754f92b32a9c767d211aafe1946848.jpg
-地址:文广大道18号
-联系电话:023-86288888
-所在城市:重庆
-类别:其他现代建筑
-是否必玩:0
-平均得分:35
-评论:['主办方选址这里举办活动，共两层楼，环境比较私密，也很安静，酒店是园林式设计，空气很清新。\\\\n\\\\n酒店群的酒店分别有施伯阁（五星）、永乐半山（四星）、宋品（高端），旁边就是融创小镇。\\\\n\\\\n酒店工作人员服务主动，态度亲切，有求必应。', '铁山坪上面的美利亚酒店的会议中心，可以办婚礼，开会议这些。装修得漂亮，服务很不错。场地很大。停车可以停地下免费的。宴会的菜品也还是可以的。今天天气也好，出了太阳，外面也不冷，最后就是里面好像不能吸烟，要到外面去吸。']
-景点:重庆第一楼
-图片:https://p0.meituan.net/ugcpic/1f284473f49413a403edc87f124f6331
-地址:藏龙街137号
-联系电话:023-67342188
-所在城市:重庆
-类别:历史建筑
-是否必玩:0
-平均得分:45
-评论:['里面挺大，有个三十岁的娃娃鱼，喝茶打牌都可以，听说还有住宿。逛逛待一下午很舒服。', '到仁里第一楼算是无意中收获了意外的惊喜，周边在改造，没想到里面居然有这么雅致的一个小楼，虽然不大但是处处都有故事的感觉。里面酒窖藏酒品种多，爱喝白酒的可以先尝后买，当然，老板很热情的，不买也可以尝。天井里还有一只巨大的娃娃鱼，今天去看它的时候 它还抬头叫了两声。院子里可以喝茶，晒太阳，也有房间可以入住。', '龙兴古镇的意外惊喜，来过好几次都没往这个方向走，这次再次踏入被门口广告吸引，里面有三十年的娃娃鱼，门票五块，确实值得一看，里面的摆设古色古香，小桥流水，可以喝茶，住宿，吃饭，开会，还有地下的酒窖，特别舒服的一个地方。', '五元的门票性价比实在高，可以在雕梁画栋的豪宅里坐着歇息喝茶。懒上一下午，感觉时光都放缓了脚步。大鲵住的石缸太小了，它不怎么活动，🐢就活跃多了，一直表演吃泥鳅。楼下的酒窖值得一逛，下次不开车的时候要来尝尝。', '有着600多年的古建筑，里面有31岁的娃娃鱼，临走还买了非遗老鹰茶，挺有意思的']
-景点:香海温泉
-图片:http://p0.meituan.net/travel/ff8832db83a0ae5b519219de211e1dde538286.png
-地址:胜利路408号
-联系电话:023-49511188
-所在城市:重庆
-类别:温泉景区
-最佳旅行时间:四季皆宜
-最佳游玩小时数:2小时
-是否必玩:0
-平均得分:39
-评论:['怎么了，没有开了吗？', '不行下次不去了不去了不去了呢不去']
-景点:小古城村景区
-图片:https://p0.meituan.net/ugcpic/593c520fec28705e07387b6505dd21be
-地址:径山镇潘金线金钟山农庄北50米
-联系电话:0571-88586251
-所在城市:杭州
-类别:古村古镇
-是否必玩:0
-平均得分:39
-评论:['地方不大，但足够孩子们在这里打发大半天的时光。除了小火车以外都是无动力设施，有滑滑梯，蹦床，坑爹海盗船，坑爹过山车，等等。各种无动力设施比较丰富。景区有天幕，但是如果想要更好的休闲放松需要自己带桌子椅子和好吃的。\\\\n\\\\n不足: 坑爹过山车的安全性需要再加强下。我们家娃坐了一次说后背撞的很疼，一看是靠背后面海绵已经掉的差不多了。', '风景真的很不错，是个好地方，下次还会再来。', '每周要去两天的小镇，游客不多挺安静的。', '总得来说还不错，性价比高，无动力乐园小孩子玩玩还是挺好的，市区过去半个多小时，稻谷还有些，有些已经收割了，天气要选好，下雨天就没啥玩的了，因为全是户外活动，秋天开始了，好好珍惜吧，杭州的秋天可很短暂的', '国庆第二天，来到这个小众的景点游玩，人不多，玩什么都不用排队，没有大门票，里面的项目单独收费，国庆期间彩虹滑道买二送一，差不多20一人。卡丁车80一人玩五圈，这天因为基本被我们家包场，所以一人玩了有六七圈，还挺过瘾。还有皮划艇，其实可以谈下价，我们滑了一小时，着实有点滑不动了。']
-景点:鹿山时代
-图片:http://p1.meituan.net/poipicadd/bcdca220687ec8735c0db371f2b0d25f805856.jpg
-地址:江滨西大道181号
-联系电话:0571-63485249
-所在城市:杭州
-类别:休闲街区
-是否必玩:0
-平均得分:35
-评论:['鹿山周边的唯一商圈。可以去逛逛。吃喝玩乐的地方还是挺多的。', '卫生环境差，母婴室竟然锁门，门口一堆生活垃圾，难怪商场没人，这点服务意识都没有！', '鹿山商圈，可以去逛一逛吃喝玩乐挺多的', '在富阳，我们入住了喜来登酒店，所以就鹿山时代就有了一个深刻的印象。\\\\n\\\\n鹿山时代应该算是一个巨大的商业体，商户业态也非常丰富，除了人流少了一点，别的没毛病。\\\\n\\\\n我特别爱鹿山时代的“霸王茶姬”，漂亮🉐', '麓山时代的东西也不知道到底吃什么，但是感觉就是说店还是有的，但是超市没有了之后就感觉好像空空荡荡了一下，然后有一些电影开始人少了很多，虽然说那边稍微逛一下还是可以的，但是不会经常往那边跑单还是祝福吧就']
-景点:花山公园
-图片:http://p1.meituan.net/travel/ee08ff20d156540c230b125e633f01f7130664.jpg
-地址:东环路21号
-联系电话:18696903069
-所在城市:重庆
-类别:城市公园
-最佳旅行时间:四季皆宜
-最佳游玩小时数:1-1.5小时
-是否必玩:0
-平均得分:36
-评论:['商品质量不错，细节、品质、做工都非常好，发货贼快，快递也给力，棒棒哒~快递小哥不错，服务也很周到，产品真的很赞价格很优惠，服务也很好 ，东西不错，给个好评以此鼓励这家店的东西很好，发货比较快，物流也很快！', '质量很好哦，发货也很快，一家非常喜欢的店铺，我要疯狂推荐给朋友们真的很喜欢，完全超出期望值，发货速度非常快，包装非常仔细、严实，物流公司服务态度很好，运送速度很快，很满意的一次购物超出预期，质量很好，做工精细，满意！', '南川花山公园现在环境还可以，只是这个时候花比较少，上山的路很多，可以开车，也可以走路，没事的时候经常来爬一下山，爬山的路很多条，绕来绕去都是上山的路，到了山上都会来上一碗香喷喷的麦耳朵，还有醪糟汤圆，洋芋花，麻辣串，各种小吃！', '南川人民还是很休闲的。\\\\n这个公园就是免费给群众来耍的，从公园路吃完豆花饭一路走到这里来就坐一下，微风习习，感受下慢节奏，不错！', '时隔数年重游花山公园。上次去还是在疫情期间，转眼睛疫情结束也一年多了。']
-景点:重庆市蚕业科学技术研究院
-图片:http://p0.meituan.net/hoteltdc/e12de33dcbc81ba242db9a97a9b2db15433537.jpg
-地址:上坝路1号
-联系电话:023-68272084/13883853332
-所在城市:重庆
-类别:科技观光
-是否必玩:0
-平均得分:42
-评论:['去过两次吧，都是带孩子去摘桑椹，位置在北碚那边，停车也很方便，有很多品种的桑椹，地方很大，品种多，关键是进去可以随便吃，也没人管，不像有些草莓园或者其他水果园，跟盯贼一样跟着，要么看着，而且那边摘得时候还是很便宜', '不知道是不是今年雨水太多的原因，兴致冲冲去摘桑葚，结果味道都不甜，并且都是水杂杂的，一点都不好吃。但是好多博主却夸大其词，说得特别好😭[流泪]\\\\n不过桑葚树确实非常多，并且品种也多，其中传说最甜的绿色品种，去的时候稍微熟一些的都被摘完了，其他的全部没熟。另外说好吃的白色品种熟了的也没味道。\\\\n期待明年春天如果雨水少的话再去一次吧。', '五一节去的。\\\\n有很多个园子，很大，可以逛很久。\\\\n主要品种还是那种普通的紫红色桑葚，要选那种红到全黑的果子才好吃，但凡带一点红色，都是酸的。\\\\n长条形的，要白了才熟了，我去的时候都被摘完了，勉强吃饭一两个成熟的，其实很好吃，但是只吃饭一两颗。\\\\n紫色那个，紫色越多越好吃，也是成熟的非常少，摘果子千辛万苦，没有多少完全成熟的，感觉吃了很多生果子。', '重庆市蚕业技术研究院的参观体验令人印象深刻。这里不仅展示了悠久的蚕桑文化，还彰显了现代蚕业科技的创新力量。研究院内，先进的实验设备和专业的研究人员展示了蚕业研究的深度和广度。通过参观，我了解到了蚕业在生态保护、经济发展中的重要作用，以及研究院在推动产业升级和技术创新方面的不懈努力。此外，工作人员的热情接待和详尽的讲解，让这次参观既充实又愉快。总体来说，这是一次富有教育意义且启发思考的体验，非常推荐对蚕业或生物科技感兴趣的人士前来参观。', '迟到半年的评价，春天刚下过雨的时候不建议去，会踩得一脚泥，费鞋。桑葚还是传统的黑色好吃，白色的没什么味道，很淡，红的也比较淡，只是看起来很漂亮']</t>
-  </si>
-  <si>
-    <t>餐厅:鲜潮牛·潮汕牛肉火锅（鹿山时代店）
-图片:http://p0.meituan.net/biztone/1328318285_1710558925933.jpeg
-地址:金鹿路269号（鹿山时代商场6号楼105室F122、123号商铺）
-联系电话:0571-88882286
-所在城市:杭州
-类别:潮汕牛肉火锅
-平均消费:80.0
-平均评分:48.0
-餐厅:宁登大酒店-餐厅（旺德大厦店）
-图片:http://p0.meituan.net/deal/6dd3942099264237f6114129540aded0252074.jpg
-地址:朝阳街道文星湾117号(旺德旺城永辉超市旁)
-联系电话:023-60301999
-所在城市:重庆
-类别:川菜馆
-平均消费:62.0
-平均评分:39.0
-餐厅:资阳羊肉（龙兴古镇店）
-图片:https://img.meituan.net/content/6f5d6deb8d2e3d8f116696e4ef58ac6a2383230.png
-地址:龙华路60号
-联系电话:13637771928
-所在城市:重庆
-类别:牛羊肉火锅
-平均消费:62.0
-平均评分:49.0
-餐厅:古茗（径山店）
-图片:https://img.meituan.net/content/87192f50f5bda510cabea98a058c2f0257911.jpg
-地址:径山镇锦城街6号好又哆超市门口6-1号
-联系电话:18158189959
-所在城市:杭州
-类别:奶茶/果汁
-平均消费:16.0
-平均评分:42.0
-餐厅:瑞幸咖啡(径山镇锦城街店)
-地址:锦城街115号底商
-所在城市:杭州
-餐厅:如景怡园（科创店）
-图片:https://img.meituan.net/content/037f526bcb22be79c8e9730401285f56207787.png
-地址:光彩大道科创职业学院东校区
-联系电话:023-49339624
-所在城市:重庆
-类别:面包蛋糕
-平均消费:27.0
-平均评分:43.0
-餐厅:老伍餐馆
-地址:藏龙街25号
-所在城市:重庆
-餐厅:富家黑鱼馆·酸菜鱼（鹿山时代店）
-图片:https://p0.meituan.net/biztone/ad7a73537d77cd093f093572848ec48e1209333.jpg
-地址:鹿山时代商场6号楼（鲜潮牛火锅店旁）
-联系电话:0571-88882286
-所在城市:杭州
-类别:酸菜鱼/水煮鱼
-平均消费:63.0
-平均评分:47.0
-餐厅:CHAGEE霸王茶姬（杭州富阳鹿山时代店）
-图片:https://img.meituan.net/content/41e72e83b9fc71f006227990de6d33c7290012.jpg
-地址:鹿山街道江滨西大道182号W19铺
-联系电话:19032270179
-所在城市:杭州
-类别:奶茶/果汁
-平均消费:19.0
-平均评分:49.0
-餐厅:水香餐饮
-地址:文星村42号8
-所在城市:重庆
-餐厅:莽子逐鹿苑山庄
-地址:海棠大道致远汽修对面
-所在城市:重庆
-餐厅:向德美火锅（南川店）
-图片:https://p0.meituan.net/biztone/a3e5a153dfae045bf10aa81f7689d6dd437095.jpg
-地址:东环路9号
-联系电话:023-71418555
-所在城市:南川
-类别:四川火锅
-平均消费:0.0
-平均评分:41.0
-餐厅:名豪国际酒店-中餐厅
-地址:萱花路名豪国际酒店三楼
-所在城市:重庆
-餐厅:赵美丽重庆火锅(南川店)
-地址:北街4号附近
-所在城市:重庆
-餐厅:施柏阁酒店·Bela全日餐厅
-图片:https://img.meituan.net/content/e02db984ff1fd4614138231e399a4289577624.jpg
-地址:文广大道18号附2号（重庆融创施柏阁酒店1层）
-联系电话:023-88287298
-所在城市:重庆
-类别:综合自助
-平均消费:164.0
-平均评分:46.0
-餐厅:瑞幸咖啡（富阳鹿山时代广场店）
-图片:https://img.meituan.net/content/19b01782ff213e777e28b847fc4647eb28602.png
-地址:金鹿路269号鹿山时代城6号105室F124底商
-联系电话:4000100100
-所在城市:杭州
-类别:咖啡厅
-平均消费:0.0
-平均评分:39.0
-餐厅:千岛湖餐馆·径山美食
-图片:https://p0.meituan.net/biztone/c9e21c34483dee1ef1bf9a75ac26c90a298571.jpg
-地址:龙皇路133号一楼二楼（径山花海边上）
-联系电话:13588748568/15824113015
-所在城市:杭州
-类别:农家菜
-平均消费:49.0
-平均评分:47.0
-餐厅:重庆山前宋品酒店·宋品西餐厅
-图片:http://p1.meituan.net/merchant/f027dbd52156113d84807d56cd102777260745.jpg
-地址:文广大道18号附8号酒店1楼
-联系电话:023-88287260
-所在城市:重庆
-类别:其他西餐
-平均消费:286.0
-平均评分:44.0
-餐厅:重庆秀才火锅·酱香型老火锅(博地中心店)
-地址:博地中心C座一层西侧(盈丰路C口)
-所在城市:杭州
-餐厅:卤哥探饮
-图片:https://p0.meituan.net/biztone/57b4b4aa9aff7667e221479885dc3e76497925.jpg
-地址:胜利路街道萱花西路74号附3号
-联系电话:18223299691
-所在城市:重庆
-类别:其他餐饮美食
-平均消费:0.0
-平均评分:42.0
-餐厅:云宴·雲中奢宴·演唱会推荐餐厅
-图片:https://img.meituan.net/content/181447fe8044d173c8b3207521d9d56a3773613.png
-地址:盈丰路博地中心C座57层全层
-联系电话:0571-82771788
-所在城市:杭州
-类别:其他粤菜
-平均消费:430.0
-平均评分:49.0
-餐厅:龙兴火锅(总店)
-地址:龙华路92号
-所在城市:重庆
-餐厅:云岫嘉筵古风餐厅(金刚碑店)
-地址:金刚碑27号
-所在城市:重庆
-餐厅:代哥的餐厅
-地址:昌州大道西段28号(近光彩大道与昌州大道西段交叉口)
-所在城市:重庆
-餐厅:重庆融创施柏阁酒店·大堂吧
-图片:http://p0.meituan.net/merchant/7e2f5ece4da9b9ae16038c276eb3d5d7425553.jpg
-地址:文广大道重庆融创施柏阁酒店2F
-联系电话:023-86288888-7988
-所在城市:重庆
-类别:咖啡厅
-平均消费:46.0
-平均评分:45.0
-餐厅:河沟边豆花馆
-图片:http://p0.meituan.net/poipicadd/e00ccdfa4897fe428734187355a08dd41026031.jpg
-地址:藏龙街60号附近
-联系电话:18716393930
-所在城市:重庆
-类别:豆腐花
-平均消费:35.0
-平均评分:38.0
-餐厅:ZOO COFFEE(钱江世纪城店)
-地址:盈丰路博地中心一楼
-所在城市:杭州
-餐厅:COSTA COFFEE（富阳鹿山时代店）
-图片:https://img.meituan.net/content/140df1e850cd9061760f5f017411bc50103913.jpg
-地址:依江路鹿山时代商圈内部CostaCoffee（咖啡店）
-联系电话:18968019151
-所在城市:杭州
-类别:咖啡厅
-平均消费:38.0
-平均评分:39.0
-餐厅:重庆融创永乐半山酒店·大堂吧
-地址:微电园永祥路1号融创万达酒店群2楼
-所在城市:重庆
-餐厅:优壹佳-延边朝鲜族料理(博地中心店)
-地址:时代博地大厦C座负一楼A1优壹佳朝鲜族料理店
-所在城市:杭州
-餐厅:重庆山前宋品酒店·品顺中餐厅
-图片:https://p0.meituan.net/biztone/57d6620fa3a9710e7ab613541bd0e1c9551237.jpg
-地址:文广大道18号附8号
-联系电话:17623186248/13883320907
-所在城市:重庆
-类别:其他粤菜
-平均消费:188.0
-平均评分:48.0
-餐厅:咖啡地带中西餐厅（东街古镇店）
-图片:http://p0.meituan.net/biztone/1967577100_1655100082761.jpeg
-地址:东城街道东街解放路B4-1-2室
-联系电话:023-71433555
-所在城市:南川
-类别:咖啡厅
-平均消费:35.0
-平均评分:48.0
-餐厅:茂斓农庄
-图片:http://p1.meituan.net/poipicadd/7211fe7db8af11854d7b2cad9bcd61a01026640.jpg
-地址:潘金线
-联系电话:0571-88531777/0571-88585919
-所在城市:杭州
-类别:农家菜
-平均消费:56.0
-平均评分:39.0
-餐厅:方才餐厅Find Chair Bistro
-地址:金刚路金刚碑快乐村庄94号（景区内大庙右边）
-所在城市:重庆
-餐厅:金钟山农庄
-地址:潘金线中共小古城村委员会东80米路南
-所在城市:杭州
-餐厅:李白图书馆餐厅(博地中心店)
-地址:盈丰路博地中心C座1号电梯4楼（地铁盈丰路站C出口）
-所在城市:杭州
-餐厅:天康农庄
-图片:http://p0.meituan.net/ugcpic/cb9bda1b79a3a52560748289152605d9
-地址:广兴路
-联系电话:023-71488789
-所在城市:南川
-类别:农家菜
-平均消费:0.0
-平均评分:42.0
-餐厅:洪霞餐馆
-图片:http://p1.meituan.net/poipicadd/71e75ebdd05018c61c9de49018d7f251651783.jpg
-地址:北泉路147号
-联系电话:13308388095/18623309335
-所在城市:重庆
-类别:川菜馆
-平均消费:65.0
-平均评分:41.0
-餐厅:Miss Blue生日蛋糕（龙兴天街店）
-图片:http://p0.meituan.net/poipicadd/7d92ceb4013accc0e3eaebef3574e9b0434067.jpg
-地址:龙兴镇祠堂街1号
-联系电话:18223391889
-所在城市:重庆
-类别:面包蛋糕
-平均消费:0.0
-平均评分:40.0
-餐厅:有间别院餐厅·私房菜·主题民宿·咖啡厅
-图片:http://p0.meituan.net/merchant/973485db940f217f6b90edbea8bd8942434453.jpg
-地址:东街三线文化主题民宿
-联系电话:15736559343
-所在城市:南川
-类别:咖啡厅
-平均消费:0.0
-平均评分:44.0</t>
-  </si>
-  <si>
-    <t>名字:7天优品（重庆北碚轻轨总站西南大学店）
-图片:http://p1.meituan.net/tdchoteldark/b577febd9e551eec2b60af3b93d40e4d7446172.jpg
-地址:云泉路49号-5（距北碚地铁站2A出口100米,近西南大学）
-联系电话:023-68278777/18996234805
-所在城市:重庆
-类别:二星级及以下/经济
-停车位信息:收费停车场
-平均得分:49.0
-名字:柏恒酒店（钱江世纪城店）
-图片:http://p0.meituan.net/tdchotel/4f2be551f80789ef764e1233fe363a8d145957.jpg
-地址:盈丰路与鸿宁路交叉口望京大厦C座C3二楼（距盈丰路地铁A、D口100米、奥体国际村50米）
-联系电话:0571-83825118
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:49.0
-名字:景天大酒店（南川区东街店）
-图片:http://p0.meituan.net/tdchoteldark/4144289fef7ca4a7707a92b1d1a82f8f3738519.jpg
-地址:南城街道办事外东风路19号(南侨大厦)1幢（东街附近600米）
-联系电话:023-71669018/19115073633
-所在城市:南川
-类别:四星级/高档
-平均得分:46.0
-名字:索菲商务酒店
-图片:http://p0.meituan.net/tdchotel/244b57b682625e0e7c194d907d829bb31697470.jpg
-地址:萱花西路415号东科商业街3号楼
-联系电话:023-49576999
-所在城市:重庆
-类别:二星级及以下/经济
-停车位信息:免费停车场
-平均得分:46.0
-名字:SOLO电竞主题酒店
-地址:江滨西大道鹿山时代B楼4楼442室
-所在城市:杭州
-类别:经济
-名字:杭州范艺术酒店（国际博览中心店）
-图片:http://p0.meituan.net/tdchotel/dc58b50304b92105ece6b8127c8e660276128.jpg
-地址:盈丰街道鸿宁路1819号左右世界1号楼(距地铁2号线盈丰路站A出口500米)
-联系电话:0571-57188288/0571-57188388
-所在城市:杭州
-类别:四星级/高档
-平均得分:50.0
-名字:仓鼠电竞酒店（重庆微电园店）
-图片:http://p0.meituan.net/tdchoteldark/8881418a0fecf4936ae9f4805fbd6927538825.jpg
-地址:西荣路28号金科天宸12街区3栋11楼
-联系电话:023-65717111/17783691197
-所在城市:重庆
-类别:四星级/高档
-平均得分:50.0
-名字:金桥旅馆
-地址:双桥村金桥路6号
-所在城市:杭州
-类别:经济
-名字:重庆泉外楼酒店
-图片:http://p0.meituan.net/tdchoteldark/8e66c88ef2b99375477820947cd2a17210757254.jpg
-地址:中山路85号（近6号线北碚地铁站2A出口）
-联系电话:023-68865777/023-68269666
-所在城市:重庆
-类别:四星级/高档
-平均得分:45.0
-名字:全季酒店（杭州富阳桂花西路地铁站店）
-图片:http://p0.meituan.net/tdchoteldark/94a1987e21b30c0f03a5e6c1d3b6be243084336.jpg
-地址:金桥南路69号
-联系电话:0571-63339588
-所在城市:杭州
-类别:四星级/高档
-平均得分:50.0
-名字:从来·沉古径山院子
-图片:http://p1.meituan.net/tdchoteldark/0f98b355429df19ede33eb833b74d8033002461.jpg
-地址:小古城村下钱家1号
-联系电话:0571-88585677/15306561263
-所在城市:杭州
-类别:四星级/高档
-平均得分:46.0
-名字:花筑·杭州轩忆阁民宿
-地址:塘埠村朱家畈2号
-所在城市:杭州
-类别:高档
-名字:金刚碑老村温泉酒店
-图片:http://p0.meituan.net/tdchoteldark/cb2d736875d1a11b978d00d95097f1242449591.jpg
-地址:金刚路金刚碑快乐村庄景区内
-联系电话:023-68868800/023-68860088
-所在城市:重庆
-类别:四星级/高档
-平均得分:45.0
-名字:杭州润·酒店
-图片:http://p0.meituan.net/tdchoteldark/7aea191c08301a1f1d48e793def4c1c87017269.jpg
-地址:江波街118号瑞胜江畔铭座2号楼
-联系电话:0571-63361999
-所在城市:杭州
-类别:四星级/高档
-平均得分:48.0
-名字:金怡大酒店（永川店）
-图片:http://p1.meituan.net/tdchoteldark/48ba4f03a86ab92d96bde4b1fd73da22353723.jpg
-地址:萱花西路283号
-联系电话:023-49203366/023-49360808
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:46.0
-名字:尚客优酒店（重庆沙坪坝区融创文旅城店）
-图片:http://p0.meituan.net/tdchoteldark/f2794d165584600bfc2848ae552e4bbf9783867.jpg
-地址:西桂路14号御林组团公寓2号楼9楼
-联系电话:17723998819
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:46.0
-名字:五佳二酒店（重庆两江新区龙兴店）
-图片:http://p0.meituan.net/tdchoteldark/69934b8dba7e7dfcb1a88af6ad7d8e2512465333.jpg
-地址:龙驿大道18号两江都会4栋16楼
-联系电话:023-62196588/19111304939
-所在城市:重庆
-类别:四星级/高档
-平均得分:50.0
-名字:杭州钱江世纪城国际博览中心亚朵酒店
-图片:http://p0.meituan.net/tdchoteldark/4662c1864ae1ca0a487fc52be21a89d34755421.jpg
-地址:民和路528号
-联系电话:0571-82800588
-所在城市:杭州
-类别:四星级/高档
-平均得分:47.0
-名字:桔子酒店（杭州富阳桂花西路地铁站店）
-图片:http://p0.meituan.net/tdchoteldark/222d998ee0fbcbbff1a90338458a11b54952316.jpg
-地址:体育馆路469号一建大楼1楼
-联系电话:0571-23238777/13735801951
-所在城市:杭州
-类别:三星级/舒适
-平均得分:50.0
-名字:金伦宾馆
-图片:http://p1.meituan.net/hotelbiz/278b40c16659e26fdc02ed8740e4f4ec48519.jpg
-地址:龙兴镇天龙路194号(三峡移民广场对面双星旁)
-联系电话:023-67252268/18523774574
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:43.0
-名字:奥登City Light酒店（北碚天奇广场店）
-图片:http://p0.meituan.net/tdchoteldark/de6738279d1096ee04373d3b04e4bc10258785.jpg
-地址:胜利路光荣村213号（距北碚吾悦广场200米,近西南大学1号门）
-联系电话:023-68207899
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:49.0
-名字:维也纳酒店（重庆融创文旅城店）
-图片:http://p1.meituan.net/tdchoteldark/4065fe26265c4b2592ffd272078dcf58678988.jpg
-地址:西桂路重庆融创文旅城御林3号楼1层
-联系电话:023-89891888
-所在城市:重庆
-类别:四星级/高档
-平均得分:49.0
-名字:阿兴宾馆
-地址:龙华大道336号
-所在城市:重庆
-类别:经济
-名字:枫亭酒店（北碚天奇广场店）
-图片:http://p1.meituan.net/tdchoteldark/1d67f8c8acd6303b619488a7bb7fa971223240.webp
-地址:粮食路万和药房对面（近重庆市第九人民医院,朝阳中学,北碚地铁站4E口）
-联系电话:023-81395699/15826154498
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:48.0
-名字:长安·锦呈酒店（北碚西南大学店）
-图片:http://p0.meituan.net/tdchoteldark/1147f9b94d196f2d3863473411b5e6b8286360.png
-地址:碚峡路130号
-联系电话:023-68868888
-所在城市:重庆
-类别:四星级/高档
-平均得分:0.0
-名字:IU酒店（重庆南川名润万达广场店）
-图片:http://p0.meituan.net/tdchoteldark/a238dd338afe0159592ead2efece6cf3452800.jpg
-地址:南园路九都尚品D幢1-5号（近人民医院、高速路口）
-联系电话:023-71682555/18996802167
-所在城市:南川
-类别:二星级及以下/经济
-平均得分:50.0
-名字:金山江悦酒店（南川万达广场店）
-图片:http://p0.meituan.net/tdchoteldark/fc28877e25364d119ec6b90c3e0975b4873976.jpg
-地址:龙济路5号(南川体育中心旁,万达广场500米))
-联系电话:023-71988888
-所在城市:南川
-类别:四星级/高档
-平均得分:50.0
-名字:潘板大酒店
-地址:锦城街14号
-所在城市:杭州
-类别:经济
-名字:乐创电竞酒店（钱江世纪城店）
-图片:http://p0.meituan.net/tdchoteldark/d41a6c224ac32b9199069abeca548cfd2992860.jpg
-地址:盈丰街道皓月路158号3楼(前台在1楼)
-联系电话:19157819790
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:49.0
-名字:维也纳国际酒店·南川区万达广场店
-图片:http://p1.meituan.net/tdchoteldark/599d05575ff494311a22b298284f6f7a1250289.jpg
-地址:西城街道文体路16号
-联系电话:023-71468888
-所在城市:南川
-类别:四星级/高档
-平均得分:50.0
-名字:杭州零纪元酒店（奥体博览中心店）
-图片:http://p0.meituan.net/tdchoteldark/2a6910acdb0b8b66a4406d69ea3210957225408.jpg
-地址:市心北路时代财富中心2幢1单元27层2701
-联系电话:13732242759
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:50.0
-名字:元泊商务酒店
-图片:http://p0.meituan.net/tdchotel/4d2c501c2f18ffb5b16eb09ac563548f10939354.jpg
-地址:鸿宁路与市政路交叉口望京B座1层（距2号线盈丰路A口50米）
-联系电话:0571-82793088
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:43.0
-名字:小湾宾馆
-地址:中国电信龙兴支局附近
-所在城市:重庆
-类别:经济
-名字:棠城快捷酒店（重庆永川渝西广场店）
-图片:http://p0.meituan.net/poipicadd/57a6e77f763c8c1dadcb117e51432505484380.jpg
-地址:万金路40号
-联系电话:023-49371888
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:49.0
-名字:好客连锁酒店（重庆北碚龙凤桥店）
-图片:http://p1.meituan.net/tdchoteldark/ab2e7af143d7db0fe4db91b744ea82ed8051972.jpg
-地址:天生街道龙凤桥头劳动村11号（龙凤桥桥头）
-联系电话:15870586502
-所在城市:重庆
-类别:二星级及以下/经济
-停车位信息:免费停车场
-平均得分:45.0
-名字:重庆海盈快捷酒店（南川万达广场店）
-图片:http://p0.meituan.net/tdchoteldark/7252ef51f88e004a14bd260e84763a703900105.jpg
-地址:和平路80号时代商都C栋（离万达广场200米,近东街）
-联系电话:023-81111666
-所在城市:南川
-类别:二星级及以下/经济
-平均得分:45.0
-名字:维也纳国际酒店·重庆两江新区龙兴店
-图片:http://p1.meituan.net/tdchoteldark/dc5f9570cb2ce87ba359f30d8cf972407414794.jpg
-地址:普福大道481号
-联系电话:15696337331
-所在城市:重庆
-类别:四星级/高档
-平均得分:50.0
-名字:如悦商务酒店（杭州富阳银泰店）
-图片:http://p0.meituan.net/tdchoteldark/e82075baece4eff8752b27a8cfd732ba1479287.jpg
-地址:春秋南路133号
-联系电话:0571-58922777
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:50.0
-名字:K1电竞酒店（重庆微电园轻轨站店）
-图片:http://p1.meituan.net/tdchoteldark/13d001a86cebc9908fd7085789f3134211097145.jpg
-地址:西荣路龙湖魔方1栋4楼
-联系电话:13364061601
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:49.0
-名字:维也纳酒店（重庆微电园轻轨站店）
-图片:http://p1.meituan.net/tdchoteldark/ae45f3bc1646e964c8ed7b5a31805ab7607109.jpg
-地址:微电园永泰路89号龙湖魔方3号楼1楼
-联系电话:023-89259888
-所在城市:重庆
-类别:四星级/高档
-平均得分:50.0
-名字:天元酒店
-图片:http://p1.meituan.net/tdchoteldark/2a0bce2b83ebc90a1b22802f5e6f5e154508154.jpg
-地址:西城街道滨河南路41号附26-27号
-联系电话:18580085580
-所在城市:南川
-类别:二星级及以下/经济
-平均得分:48.0
-名字:纬度全域酒店（南川店）
-图片:http://p0.meituan.net/tdchoteldark/18774953f10b22341ebf4c4cd1b513221789016.jpg
-地址:西城街道金山大道南川西客车站北20米
-联系电话:023-71666333
-所在城市:南川
-类别:四星级/高档
-平均得分:48.0
-名字:简格酒店（南川万达广场店）
-图片:http://p0.meituan.net/tdchoteldark/e265ea320e61f0f38950a62431912dc096725.jpg
-地址:金山大道13号（近南川万达广场、人民医院、鼓楼广场）
-联系电话:023-85634888/16623915253
-所在城市:南川
-类别:二星级及以下/经济
-平均得分:50.0
-名字:奥普酒店（重庆龙兴两江影视城店）
-图片:http://p0.meituan.net/tdchoteldark/e7789e282c0bb555209c823cb5a68f646118987.jpg
-地址:两江大道588号附100号
-联系电话:023-67161188/13370726389
-所在城市:重庆
-类别:四星级/高档
-平均得分:50.0
-名字:Zsmart智尚酒店（杭州钱江世纪城奥体店）
-图片:http://p0.meituan.net/dnaimgdark/5d3bd681b1b9252cd12460efda93401e1950508.jpg
-地址:盈丰街道利二路139号
-联系电话:0571-83687388/18069764579
-所在城市:杭州
-类别:四星级/高档
-平均得分:48.0
-名字:名豪国际酒店
-图片:http://p0.meituan.net/dnaimgdark/8f095e9d21c1e8f0f097b6774ce07afa3511356.jpg
-地址:萱花路108号（近文曲路）
-联系电话:023-49848888
-所在城市:重庆
-类别:四星级/高档
-停车位信息:免费提供50个停车位
-平均得分:47.0
-名字:山下野墅酒店（微电园高新天街店）
-图片:http://p0.meituan.net/tdchoteldark/e638115fc53db0c06bf2e94ed715fccc3639715.jpg
-地址:陈家桥街道永泰路84号7-21(龙湖拉特芳斯二街区3栋7楼721微店园店)
-联系电话:023-65637555/17347811093
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:49.0
-名字:赛博朋克·智能影院电竞酒店（杭州钱江世纪城奥体中心店）
-图片:http://p1.meituan.net/tdchoteldark/ba733ee607344d383375a2c149e612e5880336.jpg
-地址:泰宏巷与皓月路交叉口东南160米联合中心C座8楼
-联系电话:19011263790
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:50.0
-名字:景悦酒店（缙云山西南大学店）
-图片:http://p0.meituan.net/tdchoteldark/91851e9d4a57d5d2e0fd4fff6da6848b656124.jpg
-地址:缙泉路97号附1号
-联系电话:023-86080808
-所在城市:重庆
-类别:四星级/高档
-平均得分:49.0
-名字:6号宾馆
-地址:龙华路206号
-所在城市:重庆
-类别:经济
-名字:杰雅公寓
-地址:西山路191-3号4单元
-所在城市:杭州
-类别:经济
-名字:青芒日式酒店（微电园轻轨站店）
-图片:http://p1.meituan.net/tdchoteldark/0c4896159d60f7a3f5b69f06c1c643dc293635.jpg
-地址:陈家桥街道永泰路88号附17号龙湖拉特芳斯2街区2号楼（近微电园地铁站1号出口）
-联系电话:19122179585
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:49.0
-名字:全季酒店（重庆西永微电园店）
-图片:http://p0.meituan.net/tdchoteldark/787b183dfcce17647a4b0e9e538802504300728.jpg
-地址:永泰路88号龙湖拉特芳斯二街区2栋底商
-联系电话:023-65005666-0/18002323832
-所在城市:重庆
-类别:四星级/高档
-平均得分:49.0
-名字:全季酒店（杭州钱江世纪城店）
-图片:http://p0.meituan.net/tdchotel/415469e71aa833137a2d223abe23b49e1220230.jpg
-地址:鸿宁路1819号
-联系电话:0571-83822698
-所在城市:杭州
-类别:四星级/高档
-平均得分:50.0
-名字:杭州富阳瑞莱克斯大酒店
-图片:http://p0.meituan.net/tdchoteldark/9ff2d2360bd403c6b30aa169e48dc035289793.png
-地址:依江路488号T2号楼
-联系电话:0571-58998888/0571-56902426
-所在城市:杭州
-类别:四星级/高档
-平均得分:43.0
-名字:福瑞宾馆
-图片:http://p0.meituan.net/tdchoteldark/422ae8404f314798eaa193a652553bb1308768.jpg
-地址:龙兴镇龙华路235号
-联系电话:023-67345655
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:42.0
-名字:汉庭（重庆永川铭豪美食街店）
-图片:http://p0.meituan.net/tdchoteldark/0c410a0d4423916f67374b816f15658e278886.png
-地址:胜利路78号（名豪美食街入口旁，近渝西广场）
-联系电话:023-49579666
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:50.0
-名字:重庆融创永乐半山酒店
-图片:http://p0.meituan.net/tdchoteldark/1619f7c7472f7ce148c376cf9aab7cab8392920.jpg
-地址:文广大道18号
-联系电话:023-86288888
-所在城市:重庆
-类别:四星级/高档
-平均得分:47.0
-名字:杭州富阳万信至格酒店（富春山馆店）
-图片:http://p0.meituan.net/tdchoteldark/6b60e0e5f300ef3e402084510ca09e124027710.jpg
-地址:鹿山街道江滨西大道170号5号楼
-联系电话:0571-63597077/0571-63591077
-所在城市:杭州
-类别:四星级/高档
-平均得分:49.0
-名字:镜潭居酒店
-图片:http://p0.meituan.net/tdchoteldark/a5f7fb1a85645c116465459c757845971707756.jpg
-地址:曹徐线求是村许家村48-1
-联系电话:13588393607
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:47.0
-名字:维也纳3好酒店（杭州萧山钱江世纪城店）
-图片:http://p1.meituan.net/dnaimgdark/2b3a5ba439439d9d3b7ee26885d25d645129429.jpg
-地址:民和路467号国泰科技大厦1层
-联系电话:0571-82578899-0
-所在城市:杭州
-类别:四星级/高档
-平均得分:49.0
-名字:7天酒店（重庆南川钟楼街万达广场店）
-图片:http://p0.meituan.net/dnaimgdark/8769c266112dd9288113147be540a4891837380.jpg
-地址:东城街道钟楼街商业城2楼(明润广场斜对面)
-联系电话:023-81110888
-所在城市:南川
-类别:二星级及以下/经济
-平均得分:48.0
-名字:曼顿酒店（北碚西南大学店）
-图片:http://p0.meituan.net/tdchoteldark/b55e1590c922ef0d08876deeb3f8deaf1744770.jpg
-地址:北温泉街道金华路369号(漫步云端足道店楼上))
-联系电话:023-68360018
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:49.0
-名字:纯粮烧酒店
-地址:商贸路13号
-所在城市:杭州
-类别:经济
-名字:北粟酒店（西南大学店）
-图片:http://p0.meituan.net/tdchoteldark/b7f0f97bec12446b8780a810e96b1f5c6906325.jpg
-地址:碚峡路1号北宾文创街区2号楼1楼
-联系电话:023-81912626/18580450724
-所在城市:重庆
-类别:四星级/高档
-平均得分:46.0
-名字:茧驿站酒店
-图片:http://p0.meituan.net/tdchoteldark/abe9158a2d84692420f393fab06f22fa1221678.jpg
-地址:金桥路12号
-联系电话:0571-88585299
-所在城市:杭州
-类别:二星级及以下/经济
-平均得分:47.0
-名字:羲月酒店（微电园轻轨站店）
-图片:http://p0.meituan.net/tdchoteldark/df6e7577cb985a4b5bbb96baa3f889946001424.jpg
-地址:陈家桥街道永泰路88号附19号龙湖拉特芳斯二街区2栋9层
-联系电话:15923520753
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:46.0
-名字:舒乐宾馆
-地址:西堤南路436号(近春江花园西门)
-所在城市:杭州
-类别:经济
-名字:星程酒店（重庆永川中央大街店）
-图片:http://p0.meituan.net/tdchoteldark/d73722ac20aec011eb0ce649d626cdaa2110732.jpg
-地址:胜利路18号（文曲广场老干所旁，近名豪美食街）
-联系电话:023-85388886/18523313838
-所在城市:重庆
-类别:四星级/高档
-平均得分:49.0
-名字:柏曼酒店（重庆南川隆职万达广场店）
-图片:http://p0.meituan.net/tdchoteldark/371de7d62549ab9ad3aec4e2b35ed2931192910.jpg
-地址:隆化大道3号
-联系电话:023-71685999
-所在城市:南川
-类别:四星级/高档
-平均得分:50.0
-名字:旺岭商务酒店（永川渝西广场店）
-图片:http://p1.meituan.net/tdchoteldark/062de7d99908cb8d88db0e58d6351c952169808.jpg
-地址:萱花西路439号东科好旺岭商业1号楼(近水电学院、财经大学)
-联系电话:023-49655766
-所在城市:重庆
-类别:二星级及以下/经济
-平均得分:42.0</t>
-  </si>
-  <si>
-    <t>出发城市:杭州
-目的城市:上海
-编号:G7382
-出发时间:22:30
-到达时间:23:43
-价格:60.0
-出发城市:杭州
-目的城市:上海
-编号:G1674
-出发时间:10:15
-到达时间:11:50
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:D3142
-出发时间:16:15
-到达时间:17:16
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7586
-出发时间:12:15
-到达时间:13:15
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:D3104
-出发时间:05:45
-到达时间:06:38
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:D3206
-出发时间:12:30
-到达时间:13:46
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G1501
-出发时间:12:00
-到达时间:12:53
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G7561
-出发时间:17:00
-到达时间:17:54
-价格:62.0
-出发城市:重庆
-目的城市:上海
-编号:D3074
-出发时间:10:15
-到达时间:22:19
-价格:597.0
-出发城市:杭州
-目的城市:上海
-编号:G1352
-出发时间:19:15
-到达时间:20:07
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:G158
-出发时间:07:45
-到达时间:08:45
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G1690
-出发时间:22:15
-到达时间:23:14
-价格:67.0
-出发城市:杭州
-目的城市:上海
-编号:G7312
-出发时间:20:00
-到达时间:20:59
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G1674
-出发时间:08:45
-到达时间:09:50
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7502
-出发时间:19:45
-到达时间:20:54
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:D2282
-出发时间:11:00
-到达时间:12:19
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G1344
-出发时间:11:45
-到达时间:12:44
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G1660
-出发时间:10:15
-到达时间:11:07
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G7372
-出发时间:21:45
-到达时间:23:01
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7506
-出发时间:17:45
-到达时间:18:30
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7520
-出发时间:18:15
-到达时间:19:20
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:G7792
-出发时间:21:15
-到达时间:22:23
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:D3131
-出发时间:07:30
-到达时间:08:31
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:G7357
-出发时间:21:15
-到达时间:22:16
-价格:75.0
-出发城市:上海
-目的城市:杭州
-编号:G7539
-出发时间:21:45
-到达时间:22:59
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G7553
-出发时间:20:30
-到达时间:21:22
-价格:71.0
-出发城市:重庆
-目的城市:上海
-编号:G1478
-出发时间:21:30
-到达时间:08:04
-价格:589.0
-出发城市:重庆
-目的城市:上海
-编号:D3058
-出发时间:13:30
-到达时间:02:10
-价格:589.0
-出发城市:上海
-目的城市:杭州
-编号:D2289
-出发时间:13:30
-到达时间:14:44
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:D3101
-出发时间:03:00
-到达时间:04:10
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:D3145
-出发时间:06:30
-到达时间:07:31
-价格:58.0
-出发城市:上海
-目的城市:杭州
-编号:G7381
-出发时间:06:00
-到达时间:07:04
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:D935
-出发时间:16:00
-到达时间:16:54
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G7323
-出发时间:07:30
-到达时间:08:30
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G7349
-出发时间:08:30
-到达时间:09:23
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:G1634
-出发时间:17:45
-到达时间:18:38
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G1440
-出发时间:22:15
-到达时间:23:11
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G2190
-出发时间:10:15
-到达时间:11:08
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7306
-出发时间:16:30
-到达时间:17:34
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7316
-出发时间:06:15
-到达时间:07:34
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7382
-出发时间:07:30
-到达时间:08:30
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:D382
-出发时间:23:00
-到达时间:00:08
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G1638
-出发时间:08:00
-到达时间:09:02
-价格:60.0
-出发城市:杭州
-目的城市:上海
-编号:G7338
-出发时间:22:00
-到达时间:23:06
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7344
-出发时间:07:15
-到达时间:08:11
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:G7516
-出发时间:12:30
-到达时间:13:22
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:G7358
-出发时间:13:15
-到达时间:14:13
-价格:73.0
-出发城市:杭州
-目的城市:上海
-编号:D3324
-出发时间:03:00
-到达时间:04:12
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G1658
-出发时间:15:00
-到达时间:15:53
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G7542
-出发时间:10:45
-到达时间:11:37
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G8388
-出发时间:17:00
-到达时间:17:46
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:D2290
-出发时间:03:45
-到达时间:04:43
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G1350
-出发时间:14:30
-到达时间:15:30
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:D3292
-出发时间:17:15
-到达时间:18:01
-价格:75.0
-出发城市:杭州
-目的城市:上海
-编号:G7396
-出发时间:20:45
-到达时间:21:44
-价格:55.0
-出发城市:上海
-目的城市:杭州
-编号:D3323
-出发时间:14:15
-到达时间:15:16
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G1471
-出发时间:15:00
-到达时间:16:00
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7431
-出发时间:18:30
-到达时间:19:42
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G7791
-出发时间:08:00
-到达时间:08:53
-价格:56.0
-出发城市:重庆
-目的城市:杭州
-编号:D658
-出发时间:20:30
-到达时间:08:08
-价格:568.0
-出发城市:上海
-目的城市:杭州
-编号:G7303
-出发时间:11:30
-到达时间:12:20
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:D3126
-出发时间:17:45
-到达时间:19:12
-价格:74.0
-出发城市:杭州
-目的城市:上海
-编号:G1378
-出发时间:07:45
-到达时间:08:37
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G7588
-出发时间:12:15
-到达时间:13:12
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:D942
-出发时间:22:15
-到达时间:23:05
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G1334
-出发时间:16:45
-到达时间:17:45
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G1342
-出发时间:22:45
-到达时间:23:26
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:D3141
-出发时间:17:45
-到达时间:18:47
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:D377
-出发时间:20:30
-到达时间:21:53
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:G1395
-出发时间:14:15
-到达时间:15:14
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G99
-出发时间:13:30
-到达时间:14:19
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G7635
-出发时间:07:00
-到达时间:08:04
-价格:59.0
-出发城市:上海
-目的城市:重庆
-编号:D3056
-出发时间:19:30
-到达时间:07:30
-价格:597.0
-出发城市:上海
-目的城市:杭州
-编号:G1377
-出发时间:08:15
-到达时间:09:10
-价格:60.0
-出发城市:杭州
-目的城市:上海
-编号:G7546
-出发时间:16:30
-到达时间:17:29
-价格:75.0
-出发城市:杭州
-目的城市:重庆
-编号:D656
-出发时间:09:45
-到达时间:21:59
-价格:585.0
-出发城市:杭州
-目的城市:上海
-编号:D172
-出发时间:19:30
-到达时间:21:04
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7335
-出发时间:06:15
-到达时间:06:54
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G7599
-出发时间:18:45
-到达时间:19:24
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G1439
-出发时间:17:30
-到达时间:18:34
-价格:55.0
-出发城市:上海
-目的城市:杭州
-编号:G7505
-出发时间:09:15
-到达时间:10:10
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G7515
-出发时间:10:00
-到达时间:11:06
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G7599
-出发时间:16:15
-到达时间:17:14
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7566
-出发时间:18:15
-到达时间:19:20
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:D2424
-出发时间:15:15
-到达时间:16:27
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7518
-出发时间:21:30
-到达时间:22:29
-价格:74.0
-出发城市:杭州
-目的城市:上海
-编号:G7536
-出发时间:15:15
-到达时间:16:00
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7584
-出发时间:22:30
-到达时间:23:50
-价格:69.0
-出发城市:杭州
-目的城市:重庆
-编号:D2272
-出发时间:15:30
-到达时间:03:11
-价格:585.0
-出发城市:杭州
-目的城市:上海
-编号:G7636
-出发时间:13:30
-到达时间:14:55
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7432
-出发时间:09:15
-到达时间:10:28
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G1371
-出发时间:18:30
-到达时间:19:29
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G1639
-出发时间:16:45
-到达时间:17:52
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G7363
-出发时间:08:00
-到达时间:08:52
-价格:74.0
-出发城市:上海
-目的城市:杭州
-编号:G1365
-出发时间:12:30
-到达时间:13:29
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G1689
-出发时间:15:30
-到达时间:16:37
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G7371
-出发时间:22:30
-到达时间:23:30
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G1359
-出发时间:10:15
-到达时间:10:54
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G1455
-出发时间:07:45
-到达时间:08:24
-价格:65.0
-出发城市:重庆
-目的城市:上海
-编号:D2218
-出发时间:15:30
-到达时间:05:19
-价格:587.0
-出发城市:上海
-目的城市:杭州
-编号:G7357
-出发时间:13:00
-到达时间:14:31
-价格:60.0
-出发城市:杭州
-目的城市:上海
-编号:D3206
-出发时间:15:45
-到达时间:16:47
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G7314
-出发时间:11:00
-到达时间:11:57
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7534
-出发时间:20:15
-到达时间:21:03
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:G7580
-出发时间:10:45
-到达时间:11:45
-价格:56.0
-出发城市:杭州
-目的城市:上海
-编号:G7322
-出发时间:16:00
-到达时间:16:39
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G7315
-出发时间:09:45
-到达时间:10:48
-价格:65.0
-出发城市:重庆
-目的城市:上海
-编号:D958
-出发时间:18:30
-到达时间:05:18
-价格:598.0
-出发城市:杭州
-目的城市:上海
-编号:G7432
-出发时间:21:30
-到达时间:22:29
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G7572
-出发时间:13:30
-到达时间:14:36
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7764
-出发时间:15:45
-到达时间:16:52
-价格:75.0
-出发城市:杭州
-目的城市:重庆
-编号:D2222
-出发时间:17:45
-到达时间:05:17
-价格:576.0
-出发城市:杭州
-目的城市:上海
-编号:D2284
-出发时间:18:15
-到达时间:19:12
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:D932
-出发时间:06:45
-到达时间:07:35
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G1302
-出发时间:11:15
-到达时间:12:11
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G1652
-出发时间:08:30
-到达时间:09:18
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G7540
-出发时间:15:00
-到达时间:15:52
-价格:55.0
-出发城市:杭州
-目的城市:上海
-编号:G900
-出发时间:15:30
-到达时间:16:20
-价格:73.0
-出发城市:杭州
-目的城市:上海
-编号:G7524
-出发时间:12:30
-到达时间:13:16
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7364
-出发时间:12:30
-到达时间:13:29
-价格:55.0
-出发城市:杭州
-目的城市:上海
-编号:G7510
-出发时间:18:00
-到达时间:19:00
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G7522
-出发时间:21:30
-到达时间:22:51
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G2141
-出发时间:06:45
-到达时间:07:51
-价格:63.0
-出发城市:上海
-目的城市:杭州
-编号:G7313
-出发时间:15:15
-到达时间:16:05
-价格:67.0
-出发城市:杭州
-目的城市:上海
-编号:G7516
-出发时间:15:30
-到达时间:16:35
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7576
-出发时间:15:30
-到达时间:16:49
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G1659
-出发时间:12:00
-到达时间:12:52
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G7519
-出发时间:17:30
-到达时间:18:35
-价格:75.0
-出发城市:重庆
-目的城市:上海
-编号:D638
-出发时间:16:15
-到达时间:05:01
-价格:590.0
-出发城市:上海
-目的城市:杭州
-编号:D931
-出发时间:09:15
-到达时间:10:09
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:D3292
-出发时间:03:45
-到达时间:04:43
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7532
-出发时间:10:15
-到达时间:11:22
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7516
-出发时间:10:30
-到达时间:11:15
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G7389
-出发时间:19:00
-到达时间:19:48
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7336
-出发时间:11:15
-到达时间:12:24
-价格:75.0
-出发城市:上海
-目的城市:杭州
-编号:G1347
-出发时间:17:15
-到达时间:18:14
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G7559
-出发时间:12:45
-到达时间:14:08
-价格:67.0
-出发城市:上海
-目的城市:杭州
-编号:G7549
-出发时间:16:00
-到达时间:16:46
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G7529
-出发时间:13:45
-到达时间:14:54
-价格:62.0
-出发城市:重庆
-目的城市:上海
-编号:D2214
-出发时间:13:15
-到达时间:01:24
-价格:599.0
-出发城市:上海
-目的城市:杭州
-编号:G7325
-出发时间:22:30
-到达时间:00:00
-价格:55.0
-出发城市:杭州
-目的城市:上海
-编号:G7572
-出发时间:07:00
-到达时间:08:18
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7324
-出发时间:15:15
-到达时间:16:14
-价格:67.0
-出发城市:杭州
-目的城市:上海
-编号:D3104
-出发时间:02:30
-到达时间:04:12
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G1382
-出发时间:17:45
-到达时间:18:32
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G1632
-出发时间:16:00
-到达时间:16:54
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G1866
-出发时间:18:45
-到达时间:19:51
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G1385
-出发时间:11:00
-到达时间:11:59
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G1505
-出发时间:08:30
-到达时间:09:48
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:G7325
-出发时间:19:30
-到达时间:20:33
-价格:73.0
-出发城市:杭州
-目的城市:上海
-编号:G1374
-出发时间:12:45
-到达时间:13:47
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:G1376
-出发时间:14:00
-到达时间:14:53
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G7336
-出发时间:06:15
-到达时间:07:08
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7562
-出发时间:15:15
-到达时间:16:08
-价格:67.0
-出发城市:重庆
-目的城市:杭州
-编号:D2224
-出发时间:23:30
-到达时间:11:24
-价格:574.0
-出发城市:上海
-目的城市:杭州
-编号:G1387
-出发时间:07:45
-到达时间:08:44
-价格:68.0
-出发城市:上海
-目的城市:重庆
-编号:D2268
-出发时间:13:30
-到达时间:02:51
-价格:599.0
-出发城市:上海
-目的城市:杭州
-编号:G1651
-出发时间:21:45
-到达时间:22:45
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G7193
-出发时间:06:30
-到达时间:07:32
-价格:74.0
-出发城市:上海
-目的城市:杭州
-编号:G7523
-出发时间:10:30
-到达时间:11:37
-价格:63.0
-出发城市:上海
-目的城市:杭州
-编号:G7351
-出发时间:18:45
-到达时间:20:05
-价格:74.0
-出发城市:上海
-目的城市:杭州
-编号:D2289
-出发时间:13:00
-到达时间:13:49
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:D2287
-出发时间:05:30
-到达时间:06:30
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7310
-出发时间:09:15
-到达时间:10:22
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:G7400
-出发时间:07:30
-到达时间:08:29
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G820
-出发时间:15:45
-到达时间:16:31
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7516
-出发时间:18:30
-到达时间:19:02
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G8388
-出发时间:11:45
-到达时间:18:40
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G7792
-出发时间:12:45
-到达时间:14:05
-价格:64.0
-出发城市:上海
-目的城市:重庆
-编号:D3072
-出发时间:17:00
-到达时间:05:13
-价格:596.0
-出发城市:上海
-目的城市:杭州
-编号:G115
-出发时间:18:45
-到达时间:19:41
-价格:65.0
-出发城市:上海
-目的城市:杭州
-编号:G1333
-出发时间:19:45
-到达时间:20:32
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G1361
-出发时间:17:00
-到达时间:17:59
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G7511
-出发时间:14:30
-到达时间:15:15
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7533
-出发时间:20:30
-到达时间:21:22
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G1338
-出发时间:13:30
-到达时间:14:17
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G2141
-出发时间:20:45
-到达时间:21:31
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G2194
-出发时间:10:15
-到达时间:11:34
-价格:73.0
-出发城市:杭州
-目的城市:上海
-编号:G7528
-出发时间:14:45
-到达时间:15:45
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:G7528
-出发时间:22:30
-到达时间:23:17
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G1384
-出发时间:20:15
-到达时间:21:08
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7550
-出发时间:18:00
-到达时间:19:20
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:G7359
-出发时间:11:45
-到达时间:13:23
-价格:65.0
-出发城市:上海
-目的城市:重庆
-编号:D2212
-出发时间:09:30
-到达时间:21:59
-价格:588.0
-出发城市:上海
-目的城市:杭州
-编号:G1653
-出发时间:20:00
-到达时间:20:46
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G7305
-出发时间:16:15
-到达时间:17:22
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G7383
-出发时间:17:15
-到达时间:18:21
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G7527
-出发时间:09:15
-到达时间:10:11
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:G7391
-出发时间:17:30
-到达时间:18:49
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:D381
-出发时间:12:15
-到达时间:13:37
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G1373
-出发时间:14:00
-到达时间:14:49
-价格:55.0
-出发城市:杭州
-目的城市:上海
-编号:G1390
-出发时间:21:30
-到达时间:22:31
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:G1472
-出发时间:21:30
-到达时间:22:15
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:G1674
-出发时间:08:15
-到达时间:09:34
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:G7592
-出发时间:06:30
-到达时间:07:50
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7556
-出发时间:12:15
-到达时间:13:03
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G7318
-出发时间:14:30
-到达时间:16:01
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7502
-出发时间:07:30
-到达时间:08:59
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:D3132
-出发时间:12:30
-到达时间:13:46
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G1506
-出发时间:11:00
-到达时间:11:53
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G7348
-出发时间:19:00
-到达时间:19:52
-价格:60.0
-出发城市:杭州
-目的城市:上海
-编号:G7560
-出发时间:15:15
-到达时间:16:10
-价格:65.0
-出发城市:上海
-目的城市:重庆
-编号:D952
-出发时间:06:45
-到达时间:17:07
-价格:585.0
-出发城市:上海
-目的城市:杭州
-编号:D3103
-出发时间:01:00
-到达时间:02:06
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G1337
-出发时间:08:00
-到达时间:09:01
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7491
-出发时间:17:15
-到达时间:18:01
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7521
-出发时间:10:00
-到达时间:11:09
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:D3141
-出发时间:21:00
-到达时间:22:16
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:G7501
-出发时间:18:00
-到达时间:18:59
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:G7575
-出发时间:08:30
-到达时间:09:30
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G7395
-出发时间:13:00
-到达时间:14:04
-价格:75.0
-出发城市:重庆
-目的城市:上海
-编号:D2270
-出发时间:15:30
-到达时间:05:22
-价格:585.0
-出发城市:重庆
-目的城市:上海
-编号:D954
-出发时间:20:15
-到达时间:06:43
-价格:592.0
-出发城市:杭州
-目的城市:上海
-编号:D3206
-出发时间:15:00
-到达时间:15:54
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G1346
-出发时间:06:45
-到达时间:07:43
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:D3125
-出发时间:08:00
-到达时间:09:02
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:D3135
-出发时间:17:45
-到达时间:19:14
-价格:58.0
-出发城市:上海
-目的城市:杭州
-编号:G1375
-出发时间:18:45
-到达时间:19:37
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G7307
-出发时间:18:45
-到达时间:20:03
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G7333
-出发时间:07:15
-到达时间:08:17
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7551
-出发时间:15:30
-到达时间:16:29
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:D3292
-出发时间:22:15
-到达时间:23:22
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:G1394
-出发时间:22:45
-到达时间:23:40
-价格:75.0
-出发城市:杭州
-目的城市:上海
-编号:G7360
-出发时间:07:00
-到达时间:08:22
-价格:67.0
-出发城市:上海
-目的城市:杭州
-编号:G7303
-出发时间:12:45
-到达时间:13:55
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:D2287
-出发时间:06:15
-到达时间:07:39
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G1321
-出发时间:17:30
-到达时间:18:16
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G7307
-出发时间:09:00
-到达时间:09:52
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G1359
-出发时间:19:30
-到达时间:20:32
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G7339
-出发时间:16:30
-到达时间:17:29
-价格:65.0
-出发城市:上海
-目的城市:杭州
-编号:G7543
-出发时间:10:15
-到达时间:11:07
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G7301
-出发时间:14:30
-到达时间:15:54
-价格:58.0
-出发城市:上海
-目的城市:重庆
-编号:D2206
-出发时间:08:30
-到达时间:21:59
-价格:591.0
-出发城市:上海
-目的城市:杭州
-编号:G1631
-出发时间:22:15
-到达时间:23:17
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G7319
-出发时间:11:00
-到达时间:11:54
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G7390
-出发时间:18:45
-到达时间:19:39
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G7326
-出发时间:12:00
-到达时间:12:40
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7318
-出发时间:06:00
-到达时间:07:00
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G1674
-出发时间:09:45
-到达时间:10:34
-价格:66.0
-出发城市:重庆
-目的城市:杭州
-编号:D2248
-出发时间:13:30
-到达时间:01:14
-价格:575.0
-出发城市:杭州
-目的城市:上海
-编号:D3146
-出发时间:13:45
-到达时间:14:56
-价格:56.0
-出发城市:杭州
-目的城市:上海
-编号:G1510
-出发时间:11:15
-到达时间:12:14
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G7524
-出发时间:22:45
-到达时间:23:59
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7360
-出发时间:19:00
-到达时间:20:39
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G1635
-出发时间:12:45
-到达时间:13:45
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G1865
-出发时间:22:15
-到达时间:23:10
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G7367
-出发时间:21:15
-到达时间:22:22
-价格:74.0
-出发城市:上海
-目的城市:杭州
-编号:G7579
-出发时间:19:30
-到达时间:20:32
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G819
-出发时间:08:30
-到达时间:09:15
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G997
-出发时间:12:45
-到达时间:13:30
-价格:72.0
-出发城市:重庆
-目的城市:上海
-编号:D2208
-出发时间:22:00
-到达时间:10:57
-价格:596.0
-出发城市:重庆
-目的城市:杭州
-编号:D2274
-出发时间:09:15
-到达时间:20:39
-价格:570.0
-出发城市:上海
-目的城市:杭州
-编号:D3107
-出发时间:21:30
-到达时间:22:42
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:D3291
-出发时间:04:00
-到达时间:05:01
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G7301
-出发时间:16:00
-到达时间:16:53
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G7337
-出发时间:18:30
-到达时间:19:33
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G2366
-出发时间:06:30
-到达时间:07:15
-价格:61.0
-出发城市:杭州
-目的城市:上海
-编号:G7366
-出发时间:10:45
-到达时间:11:40
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:D3206
-出发时间:20:30
-到达时间:21:10
-价格:63.0
-出发城市:上海
-目的城市:杭州
-编号:G7319
-出发时间:09:45
-到达时间:11:10
-价格:65.0
-出发城市:上海
-目的城市:杭州
-编号:D171
-出发时间:08:15
-到达时间:10:02
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G8388
-出发时间:07:15
-到达时间:14:01
-价格:62.0
-出发城市:上海
-目的城市:重庆
-编号:G1532
-出发时间:19:30
-到达时间:07:12
-价格:595.0
-出发城市:上海
-目的城市:杭州
-编号:D941
-出发时间:09:15
-到达时间:10:09
-价格:75.0
-出发城市:上海
-目的城市:杭州
-编号:G7331
-出发时间:15:45
-到达时间:16:37
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G7525
-出发时间:20:00
-到达时间:21:00
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G7549
-出发时间:20:30
-到达时间:21:39
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G7571
-出发时间:21:45
-到达时间:22:45
-价格:67.0
-出发城市:重庆
-目的城市:上海
-编号:D354
-出发时间:19:15
-到达时间:07:23
-价格:601.0
-出发城市:上海
-目的城市:杭州
-编号:G7367
-出发时间:09:45
-到达时间:10:31
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:D2281
-出发时间:15:45
-到达时间:17:11
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:D3201
-出发时间:12:15
-到达时间:13:25
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G7335
-出发时间:16:30
-到达时间:17:29
-价格:56.0
-出发城市:上海
-目的城市:杭州
-编号:G7517
-出发时间:22:00
-到达时间:22:49
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G7583
-出发时间:21:15
-到达时间:22:15
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G7595
-出发时间:16:45
-到达时间:18:03
-价格:58.0
-出发城市:上海
-目的城市:杭州
-编号:G1389
-出发时间:14:15
-到达时间:15:09
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G1655
-出发时间:10:45
-到达时间:11:44
-价格:58.0
-出发城市:上海
-目的城市:杭州
-编号:G7507
-出发时间:21:15
-到达时间:22:07
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G817
-出发时间:07:00
-到达时间:07:45
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:D2125
-出发时间:01:00
-到达时间:01:56
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:D3107
-出发时间:15:30
-到达时间:17:06
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7311
-出发时间:11:45
-到达时间:12:37
-价格:56.0
-出发城市:上海
-目的城市:杭州
-编号:D2287
-出发时间:07:45
-到达时间:08:30
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G7368
-出发时间:17:45
-到达时间:18:43
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7530
-出发时间:22:15
-到达时间:23:15
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G7368
-出发时间:07:15
-到达时间:07:54
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G1455
-出发时间:09:00
-到达时间:09:59
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G1637
-出发时间:06:15
-到达时间:07:21
-价格:58.0
-出发城市:上海
-目的城市:杭州
-编号:G1673
-出发时间:21:15
-到达时间:22:29
-价格:75.0
-出发城市:上海
-目的城市:杭州
-编号:G7365
-出发时间:16:00
-到达时间:16:56
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G7461
-出发时间:07:00
-到达时间:07:56
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G7359
-出发时间:11:00
-到达时间:12:06
-价格:56.0
-出发城市:杭州
-目的城市:上海
-编号:G1370
-出发时间:22:30
-到达时间:23:32
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G1372
-出发时间:16:00
-到达时间:16:45
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G7590
-出发时间:06:15
-到达时间:07:16
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7512
-出发时间:13:00
-到达时间:13:43
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7584
-出发时间:07:45
-到达时间:08:32
-价格:73.0
-出发城市:杭州
-目的城市:上海
-编号:G7304
-出发时间:12:30
-到达时间:13:59
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G1228
-出发时间:08:45
-到达时间:09:52
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7492
-出发时间:22:30
-到达时间:00:07
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:G7512
-出发时间:15:00
-到达时间:16:13
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7392
-出发时间:20:15
-到达时间:21:29
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:D3136
-出发时间:23:15
-到达时间:00:17
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:D3202
-出发时间:12:45
-到达时间:14:11
-价格:56.0
-出发城市:杭州
-目的城市:上海
-编号:G7552
-出发时间:06:00
-到达时间:07:06
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G818
-出发时间:17:45
-到达时间:18:31
-价格:67.0
-出发城市:杭州
-目的城市:上海
-编号:G7358
-出发时间:20:30
-到达时间:21:58
-价格:55.0
-出发城市:杭州
-目的城市:上海
-编号:G1584
-出发时间:11:00
-到达时间:11:52
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G7192
-出发时间:12:30
-到达时间:13:22
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G7340
-出发时间:20:00
-到达时间:20:56
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G7350
-出发时间:17:30
-到达时间:18:24
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7504
-出发时间:22:30
-到达时间:23:29
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:D936
-出发时间:04:15
-到达时间:05:05
-价格:56.0
-出发城市:杭州
-目的城市:上海
-编号:G1322
-出发时间:14:00
-到达时间:15:07
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:G7576
-出发时间:15:30
-到达时间:16:36
-价格:55.0
-出发城市:上海
-目的城市:杭州
-编号:G1329
-出发时间:13:15
-到达时间:14:14
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G1357
-出发时间:13:00
-到达时间:13:47
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:G1471
-出发时间:14:00
-到达时间:15:14
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7514
-出发时间:20:15
-到达时间:21:21
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G7566
-出发时间:12:30
-到达时间:13:23
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G7332
-出发时间:10:00
-到达时间:10:59
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:D3205
-出发时间:13:00
-到达时间:14:04
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G1383
-出发时间:06:00
-到达时间:06:59
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7343
-出发时间:14:00
-到达时间:14:52
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:G899
-出发时间:07:30
-到达时间:08:24
-价格:72.0
-出发城市:重庆
-目的城市:上海
-编号:G1534
-出发时间:11:45
-到达时间:23:26
-价格:586.0
-出发城市:上海
-目的城市:杭州
-编号:G7339
-出发时间:10:15
-到达时间:10:54
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:D2282
-出发时间:04:30
-到达时间:05:27
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:D2290
-出发时间:12:00
-到达时间:13:12
-价格:73.0
-出发城市:上海
-目的城市:杭州
-编号:G1353
-出发时间:12:00
-到达时间:13:00
-价格:75.0
-出发城市:上海
-目的城市:杭州
-编号:G1583
-出发时间:06:30
-到达时间:07:25
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G1657
-出发时间:15:45
-到达时间:16:31
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7313
-出发时间:18:15
-到达时间:19:28
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7347
-出发时间:15:00
-到达时间:16:00
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G7561
-出发时间:18:30
-到达时间:19:37
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G1505
-出发时间:09:30
-到达时间:10:20
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:G1362
-出发时间:22:45
-到达时间:23:43
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:G7334
-出发时间:16:00
-到达时间:17:00
-价格:74.0
-出发城市:杭州
-目的城市:上海
-编号:G7502
-出发时间:11:15
-到达时间:12:09
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:D3108
-出发时间:11:30
-到达时间:12:25
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:G1348
-出发时间:10:00
-到达时间:10:46
-价格:57.0
-出发城市:杭州
-目的城市:上海
-编号:G2142
-出发时间:13:15
-到达时间:14:09
-价格:67.0
-出发城市:杭州
-目的城市:上海
-编号:G7554
-出发时间:13:45
-到达时间:14:45
-价格:69.0
-出发城市:上海
-目的城市:重庆
-编号:D956
-出发时间:06:45
-到达时间:17:20
-价格:595.0
-出发城市:上海
-目的城市:杭州
-编号:G2189
-出发时间:19:45
-到达时间:20:44
-价格:63.0
-出发城市:上海
-目的城市:杭州
-编号:G7321
-出发时间:17:00
-到达时间:17:59
-价格:66.0
-出发城市:上海
-目的城市:杭州
-编号:G7589
-出发时间:12:00
-到达时间:12:59
-价格:67.0
-出发城市:上海
-目的城市:杭州
-编号:G7525
-出发时间:06:30
-到达时间:07:42
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:D3292
-出发时间:18:45
-到达时间:20:04
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:G1363
-出发时间:09:15
-到达时间:10:24
-价格:69.0
-出发城市:上海
-目的城市:杭州
-编号:G1363
-出发时间:14:45
-到达时间:15:31
-价格:61.0
-出发城市:上海
-目的城市:杭州
-编号:G1369
-出发时间:07:15
-到达时间:07:54
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G1227
-出发时间:06:15
-到达时间:07:07
-价格:65.0
-出发城市:上海
-目的城市:杭州
-编号:G2365
-出发时间:10:00
-到达时间:11:09
-价格:57.0
-出发城市:上海
-目的城市:杭州
-编号:G7557
-出发时间:14:30
-到达时间:15:22
-价格:67.0
-出发城市:上海
-目的城市:杭州
-编号:G7587
-出发时间:07:45
-到达时间:08:40
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:D2160
-出发时间:04:00
-到达时间:05:23
-价格:70.0
-出发城市:杭州
-目的城市:上海
-编号:G1328
-出发时间:16:15
-到达时间:17:22
-价格:74.0
-出发城市:杭州
-目的城市:上海
-编号:G1388
-出发时间:12:15
-到达时间:13:07
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:G7330
-出发时间:06:15
-到达时间:07:25
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G7502
-出发时间:12:15
-到达时间:13:29
-价格:59.0
-出发城市:杭州
-目的城市:重庆
-编号:D2246
-出发时间:17:45
-到达时间:05:05
-价格:577.0
-出发城市:杭州
-目的城市:上海
-编号:G7352
-出发时间:09:00
-到达时间:10:15
-价格:67.0
-出发城市:上海
-目的城市:杭州
-编号:G2193
-出发时间:11:00
-到达时间:11:52
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G7535
-出发时间:10:00
-到达时间:10:53
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G7591
-出发时间:13:30
-到达时间:14:26
-价格:59.0
-出发城市:上海
-目的城市:杭州
-编号:D3101
-出发时间:05:15
-到达时间:06:02
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G2189
-出发时间:08:15
-到达时间:08:54
-价格:67.0
-出发城市:杭州
-目的城市:上海
-编号:D388
-出发时间:21:15
-到达时间:22:10
-价格:69.0
-出发城市:杭州
-目的城市:上海
-编号:G1386
-出发时间:08:15
-到达时间:09:14
-价格:60.0
-出发城市:杭州
-目的城市:上海
-编号:G1656
-出发时间:21:00
-到达时间:21:56
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7556
-出发时间:17:00
-到达时间:18:09
-价格:67.0
-出发城市:上海
-目的城市:杭州
-编号:D2283
-出发时间:04:30
-到达时间:05:32
-价格:60.0
-出发城市:上海
-目的城市:杭州
-编号:D2287
-出发时间:05:30
-到达时间:06:39
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:G1369
-出发时间:08:00
-到达时间:08:59
-价格:72.0
-出发城市:上海
-目的城市:杭州
-编号:G1509
-出发时间:08:30
-到达时间:09:17
-价格:65.0
-出发城市:上海
-目的城市:杭州
-编号:G7503
-出发时间:09:30
-到达时间:10:23
-价格:65.0
-出发城市:上海
-目的城市:杭州
-编号:G7585
-出发时间:13:15
-到达时间:14:15
-价格:64.0
-出发城市:杭州
-目的城市:上海
-编号:D3102
-出发时间:20:45
-到达时间:21:56
-价格:75.0
-出发城市:杭州
-目的城市:上海
-编号:D2160
-出发时间:22:15
-到达时间:23:07
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G7509
-出发时间:22:15
-到达时间:23:14
-价格:58.0
-出发城市:杭州
-目的城市:上海
-编号:G1654
-出发时间:19:00
-到达时间:19:47
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:G7194
-出发时间:15:30
-到达时间:16:22
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7304
-出发时间:19:45
-到达时间:20:44
-价格:62.0
-出发城市:杭州
-目的城市:上海
-编号:G998
-出发时间:07:45
-到达时间:08:30
-价格:65.0
-出发城市:上海
-目的城市:重庆
-编号:D2216
-出发时间:05:15
-到达时间:19:31
-价格:599.0
-出发城市:上海
-目的城市:重庆
-编号:D352
-出发时间:20:15
-到达时间:08:12
-价格:589.0
-出发城市:杭州
-目的城市:上海
-编号:D3126
-出发时间:20:45
-到达时间:21:55
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:G7308
-出发时间:13:30
-到达时间:14:30
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G7312
-出发时间:20:45
-到达时间:21:32
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G7322
-出发时间:16:30
-到达时间:17:30
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G8388
-出发时间:18:00
-到达时间:19:07
-价格:74.0
-出发城市:杭州
-目的城市:上海
-编号:G7360
-出发时间:18:15
-到达时间:19:15
-价格:62.0
-出发城市:上海
-目的城市:杭州
-编号:G1301
-出发时间:15:45
-到达时间:16:52
-价格:71.0
-出发城市:上海
-目的城市:杭州
-编号:G7375
-出发时间:14:30
-到达时间:15:36
-价格:70.0
-出发城市:上海
-目的城市:杭州
-编号:G7355
-出发时间:17:00
-到达时间:18:04
-价格:58.0
-出发城市:上海
-目的城市:杭州
-编号:G7635
-出发时间:17:15
-到达时间:17:59
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:G100
-出发时间:20:30
-到达时间:21:17
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G1342
-出发时间:13:30
-到达时间:14:31
-价格:65.0
-出发城市:杭州
-目的城市:上海
-编号:G2194
-出发时间:12:15
-到达时间:13:21
-价格:68.0
-出发城市:杭州
-目的城市:上海
-编号:G7550
-出发时间:16:30
-到达时间:17:37
-价格:59.0
-出发城市:杭州
-目的城市:上海
-编号:D3324
-出发时间:16:45
-到达时间:17:34
-价格:73.0
-出发城市:上海
-目的城市:重庆
-编号:D636
-出发时间:16:00
-到达时间:03:58
-价格:584.0
-出发城市:上海
-目的城市:重庆
-编号:G1476
-出发时间:09:45
-到达时间:20:25
-价格:597.0
-出发城市:上海
-目的城市:杭州
-编号:G7399
-出发时间:06:00
-到达时间:06:55
-价格:68.0
-出发城市:上海
-目的城市:杭州
-编号:G7545
-出发时间:18:00
-到达时间:18:45
-价格:64.0
-出发城市:上海
-目的城市:杭州
-编号:G7595
-出发时间:09:00
-到达时间:10:03
-价格:72.0
-出发城市:杭州
-目的城市:上海
-编号:G1502
-出发时间:18:00
-到达时间:19:03
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G1636
-出发时间:16:00
-到达时间:17:07
-价格:66.0
-出发城市:杭州
-目的城市:上海
-编号:G7326
-出发时间:20:45
-到达时间:21:49
-价格:71.0
-出发城市:杭州
-目的城市:上海
-编号:G7376
-出发时间:20:15
-到达时间:21:08
-价格:63.0
-出发城市:杭州
-目的城市:上海
-编号:G7504
-出发时间:20:00
-到达时间:20:39
-价格:60.0</t>
-  </si>
-  <si>
-    <t>城市:杭州
-日期:2024-05-01
-最高温度:21°
-最低温度:12°
-天气:阴~多云
-风向:北风2级
-空气质量:39 优
-城市:杭州
-日期:2024-05-02
-最高温度:22°
-最低温度:15°
-天气:阴~多云
-风向:东风2级
-空气质量:43 优
-城市:杭州
-日期:2024-05-03
-最高温度:22°
-最低温度:15°
-天气:多云~小雨
-风向:东北风3级
-空气质量:45 优
-城市:杭州
-日期:2024-05-04
-最高温度:19°
-最低温度:16°
-天气:小雨~中雨
-风向:东南风1级
-空气质量:42 优
-城市:杭州
-日期:2024-05-05
-最高温度:22°
-最低温度:18°
-天气:小雨
-风向:北风1级
-空气质量:29 优
-城市:重庆
-日期:2024-05-01
-最高温度:18°
-最低温度:15°
-天气:小雨
-风向:东北风1级
-空气质量:43 优
-城市:重庆
-日期:2024-05-02
-最高温度:20°
-最低温度:17°
-天气:雾~小雨
-风向:东北风2级
-空气质量:33 优
-城市:重庆
-日期:2024-05-03
-最高温度:21°
-最低温度:17°
-天气:阴~小雨
-风向:东北风1级
-空气质量:31 优
-城市:重庆
-日期:2024-05-04
-最高温度:21°
-最低温度:16°
-天气:小雨~多云
-风向:西南风1级
-空气质量:40 优
-城市:重庆
-日期:2024-05-05
-最高温度:27°
-最低温度:18°
-天气:雾~阴
-风向:东北风1级
-空气质量:44 优</t>
   </si>
   <si>
     <t xml:space="preserve">根据您的要求，我为您制定了一个为期5天的旅行计划，涵盖了西宁出发，前往兰州和西安的行程。以下是详细的行程安排：
@@ -20657,7 +17186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -21025,15 +17554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21074,7 +17603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -21106,7 +17635,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -21115,7 +17644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -21156,7 +17685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -21197,7 +17726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -21238,7 +17767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -21279,7 +17808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -21310,169 +17839,137 @@
       <c r="J7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
+      <c r="M7" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D8" t="s">
         <v>93</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="G8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="H8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
+      <c r="I8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" t="s">
+      <c r="J8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
+      <c r="L8" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
+      <c r="M8" t="s">
         <v>102</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="H9" t="s">
+      <c r="E9" t="s">
         <v>107</v>
       </c>
-      <c r="I9" t="s">
+      <c r="F9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H9" t="s">
         <v>110</v>
       </c>
-      <c r="L9" t="s">
+      <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="M9" t="s">
+      <c r="J9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="s">
+      <c r="M9" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" t="s">
         <v>117</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" t="s">
         <v>119</v>
       </c>
-      <c r="H10" t="s">
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="I10" t="s">
+      <c r="F10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="G10" t="s">
         <v>122</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H10" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
+      <c r="I10" t="s">
         <v>124</v>
       </c>
-      <c r="M10" t="s">
+      <c r="J10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
         <v>126</v>
       </c>
-      <c r="B11" t="s">
+      <c r="L10" t="s">
         <v>127</v>
       </c>
-      <c r="C11" t="s">
+      <c r="M10" t="s">
         <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
